--- a/static/accounts_stage2.xlsx
+++ b/static/accounts_stage2.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Максим\Desktop\файлы для тестов Алексей\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C0D8CB9C-8E90-45CE-8F08-D5B10076096A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D3970FF2-80CE-4BEF-9873-D105F883CAE6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="2280" yWindow="3285" windowWidth="26490" windowHeight="11385" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="7575" yWindow="3285" windowWidth="13230" windowHeight="11385" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -28,64 +28,64 @@
     <t>Cookie</t>
   </si>
   <si>
-    <t>470df4e3efb162da:RNW78Fm5@res.proxy-seller.com:10000</t>
-  </si>
-  <si>
-    <t>steamCountry=DE%7C35bacc9f7b34a4219c09311f42b35246;steamLoginSecure=76561199692162465%7C%7CeyAidHlwIjogIkpXVCIsICJhbGciOiAiRWREU0EiIH0.eyAiaXNzIjogInI6MDAwRF8yNjIwNkNCRl8yNjREMCIsICJzdWIiOiAiNzY1NjExOTk2OTIxNjI0NjUiLCAiYXVkIjogWyAid2ViOmNvbW11bml0eSIgXSwgImV4cCI6IDE3NDQ0MTA1NDQsICJuYmYiOiAxNzM1NjgyNjY0LCAiaWF0IjogMTc0NDMyMjY2NCwgImp0aSI6ICIwMDBEXzI2MjA2Q0JGXzI2NUVFIiwgIm9hdCI6IDE3NDQzMjI2NjMsICJydF9leHAiOiAxNzYyNTkwODEzLCAicGVyIjogMCwgImlwX3N1YmplY3QiOiAiNDYuMTE0LjE3NC4yMCIsICJpcF9jb25maXJtZXIiOiAiNDYuMTE0LjE3NC4yMCIgfQ.6IiRvSlmXQ2z_hB_NR_AkkujzE9Av3IIEr6bWPAt5-4dkiOWIMmVHzPFRzcXN4ZktCaUFI6YWGgzVuyacR13DQ;sessionid=a8db239bd17056113347b8d9</t>
-  </si>
-  <si>
-    <t>470df4e3efb162da:RNW78Fm5@res.proxy-seller.com:10001</t>
-  </si>
-  <si>
-    <t>steamCountry=DE%7C17260b9cc821d77c342429569cc9ab27;steamLoginSecure=76561199691560677%7C%7CeyAidHlwIjogIkpXVCIsICJhbGciOiAiRWREU0EiIH0.eyAiaXNzIjogInI6MDAxM18yNjIwNkNDMl8xNTZFNSIsICJzdWIiOiAiNzY1NjExOTk2OTE1NjA2NzciLCAiYXVkIjogWyAid2ViOmNvbW11bml0eSIgXSwgImV4cCI6IDE3NDQ0MDkwODAsICJuYmYiOiAxNzM1NjgyNjcyLCAiaWF0IjogMTc0NDMyMjY3MiwgImp0aSI6ICIwMDE5XzI2MjA2RkJDXzE5NzJEIiwgIm9hdCI6IDE3NDQzMjI2NzEsICJydF9leHAiOiAxNzYyNTIxOTIzLCAicGVyIjogMCwgImlwX3N1YmplY3QiOiAiMTQ1LjIyNC43NS4xOTQiLCAiaXBfY29uZmlybWVyIjogIjE0NS4yMjQuNzUuMTk0IiB9.007gMjZKrSirlnHGt2HqgF6ZtHW650OnRCS8T1BasFUgghvgBQZQ6TlHGdYfcO0tArg4V1y45PwTBi4oH9nuDw;sessionid=90731e6628ddb753f307bbcb</t>
-  </si>
-  <si>
-    <t>470df4e3efb162da:RNW78Fm5@res.proxy-seller.com:10002</t>
-  </si>
-  <si>
-    <t>steamCountry=DE%7C1ca34c6a714326989a2f53155874cf11;steamLoginSecure=76561199691838095%7C%7CeyAidHlwIjogIkpXVCIsICJhbGciOiAiRWREU0EiIH0.eyAiaXNzIjogInI6MDAxN18yNjIwNkZCQ180N0ExNyIsICJzdWIiOiAiNzY1NjExOTk2OTE4MzgwOTUiLCAiYXVkIjogWyAid2ViOmNvbW11bml0eSIgXSwgImV4cCI6IDE3NDQ0MDk4MDksICJuYmYiOiAxNzM1NjgyNjc1LCAiaWF0IjogMTc0NDMyMjY3NSwgImp0aSI6ICIwMDEyXzI2MjA2Q0MyXzMzMEU1IiwgIm9hdCI6IDE3NDQzMjI2NzQsICJydF9leHAiOiAxNzYyNzU1MzAyLCAicGVyIjogMCwgImlwX3N1YmplY3QiOiAiODMuMTM1LjE2MC44MSIsICJpcF9jb25maXJtZXIiOiAiODMuMTM1LjE2MC44MSIgfQ.CpbZ2Nx-b_9HRop4gtkB5fDzuvpTRxsRBW5xdySr5FrRASYGUTDGK5VOKRJieQ2ZWCiXfcAMAx19ZzYPmYSnAQ;sessionid=228aea583c52a02b54ed7973</t>
-  </si>
-  <si>
-    <t>470df4e3efb162da:RNW78Fm5@res.proxy-seller.com:10003</t>
-  </si>
-  <si>
-    <t>steamCountry=DE%7C5e987365d17531839bce527718d3dfb3;steamLoginSecure=76561199691555889%7C%7CeyAidHlwIjogIkpXVCIsICJhbGciOiAiRWREU0EiIH0.eyAiaXNzIjogInI6MDAxMF8yNjIwNkNCRl8yMkJCNSIsICJzdWIiOiAiNzY1NjExOTk2OTE1NTU4ODkiLCAiYXVkIjogWyAid2ViOmNvbW11bml0eSIgXSwgImV4cCI6IDE3NDQ0MTAzNDYsICJuYmYiOiAxNzM1NjgyNjc3LCAiaWF0IjogMTc0NDMyMjY3NywgImp0aSI6ICIwMDBDXzI2MjA2Q0MyXzJEMERFIiwgIm9hdCI6IDE3NDQzMjI2NzcsICJydF9leHAiOiAxNzYyNTkzNzg1LCAicGVyIjogMCwgImlwX3N1YmplY3QiOiAiOTEuNTYuMTQ4LjMxIiwgImlwX2NvbmZpcm1lciI6ICI5MS41Ni4xNDguMzEiIH0.5V3U7vKZPK4xAZyO8OLEl_KYTToPD6KcUpKVUyYvlxHfQ1rfqiVUWJdFE8EHY0nbXxeKzMGgV0jhFaUXJwSXAQ;sessionid=abef034df49abd164ac4a06d</t>
-  </si>
-  <si>
-    <t>470df4e3efb162da:RNW78Fm5@res.proxy-seller.com:10005</t>
-  </si>
-  <si>
-    <t>steamCountry=DE%7C111007a89d49567c4042ac597a8edb0e;steamLoginSecure=76561199691733088%7C%7CeyAidHlwIjogIkpXVCIsICJhbGciOiAiRWREU0EiIH0.eyAiaXNzIjogInI6MDAxNl8yNjIwNkNDNF8yNDRCMiIsICJzdWIiOiAiNzY1NjExOTk2OTE3MzMwODgiLCAiYXVkIjogWyAid2ViOmNvbW11bml0eSIgXSwgImV4cCI6IDE3NDQ0MDkxNzQsICJuYmYiOiAxNzM1NjgyNjkyLCAiaWF0IjogMTc0NDMyMjY5MiwgImp0aSI6ICIwMDBCXzI2MjA2QjZDXzRCQkJEIiwgIm9hdCI6IDE3NDQzMjI2OTEsICJydF9leHAiOiAxNzYyMzIzNTM5LCAicGVyIjogMCwgImlwX3N1YmplY3QiOiAiOTEuNDEuNy4xODkiLCAiaXBfY29uZmlybWVyIjogIjkxLjQxLjcuMTg5IiB9._JdCPr75q30I5XRaLe2XYh9IRCqhJfOnJZ61xhU1OVoKzHZMCVbq3VEMrcj1nLTPVBiO3GgP_wzVRkCt1WJ9AA;sessionid=f70b070064bf3385d737c932</t>
-  </si>
-  <si>
-    <t>470df4e3efb162da:RNW78Fm5@res.proxy-seller.com:10006</t>
-  </si>
-  <si>
-    <t>steamCountry=DE%7Cc4c3d67635463c9b051cef5bf53d5d25;steamLoginSecure=76561199691712259%7C%7CeyAidHlwIjogIkpXVCIsICJhbGciOiAiRWREU0EiIH0.eyAiaXNzIjogInI6MDAwNl8yNjIwNkNCRl8yQzM1QyIsICJzdWIiOiAiNzY1NjExOTk2OTE3MTIyNTkiLCAiYXVkIjogWyAid2ViOmNvbW11bml0eSIgXSwgImV4cCI6IDE3NDQ0MTAwMzgsICJuYmYiOiAxNzM1NjgyNjk0LCAiaWF0IjogMTc0NDMyMjY5NCwgImp0aSI6ICIwMDA3XzI2MjA2Q0JGXzE3MkMwIiwgIm9hdCI6IDE3NDQzMjI2OTQsICJydF9leHAiOiAxNzYyNzM2NTIwLCAicGVyIjogMCwgImlwX3N1YmplY3QiOiAiODQuMTE5LjIxNS4yMTkiLCAiaXBfY29uZmlybWVyIjogIjg0LjExOS4yMTUuMjE5IiB9.XXlpvkpcG-Y8Mt_A-hpAEzRgIYI9ls1i-MH74igN1DZhEa3N6vHmNKpVByPPPz6g9VWaorK-2YdgK7whqjuOBA;sessionid=72913aa2b99df64428e217cd</t>
-  </si>
-  <si>
-    <t>470df4e3efb162da:RNW78Fm5@res.proxy-seller.com:10007</t>
-  </si>
-  <si>
-    <t>steamCountry=DE%7C22198398182e69da4a545ac63ba5a668;steamLoginSecure=76561199691841634%7C%7CeyAidHlwIjogIkpXVCIsICJhbGciOiAiRWREU0EiIH0.eyAiaXNzIjogInI6MDAxMl8yNjIwNkNDMl8zM0Y3RCIsICJzdWIiOiAiNzY1NjExOTk2OTE4NDE2MzQiLCAiYXVkIjogWyAid2ViOmNvbW11bml0eSIgXSwgImV4cCI6IDE3NDQ0MTAwOTQsICJuYmYiOiAxNzM1NjgyNjk3LCAiaWF0IjogMTc0NDMyMjY5NywgImp0aSI6ICIwMDA3XzI2MjA2Q0JGXzE3NEJDIiwgIm9hdCI6IDE3NDQzMjI2OTYsICJydF9leHAiOiAxNzYyNTM3OTgwLCAicGVyIjogMCwgImlwX3N1YmplY3QiOiAiODAuMTcxLjQ2LjE1OCIsICJpcF9jb25maXJtZXIiOiAiODAuMTcxLjQ2LjE1OCIgfQ.ivDrzDpR7qivniLhzsmAjY3dsBQlqNDVAgd2D7IjS1KuShGZ_gXUuaAKMdGz1YvzvmH1eNcyONXXPb9elHP8AQ;sessionid=8143c2dbc123ac395ea4599c</t>
-  </si>
-  <si>
-    <t>470df4e3efb162da:RNW78Fm5@res.proxy-seller.com:10008</t>
-  </si>
-  <si>
-    <t>steamCountry=DE%7Cf390db4227dfc620d7812fe14e287a51;steamLoginSecure=76561199692187878%7C%7CeyAidHlwIjogIkpXVCIsICJhbGciOiAiRWREU0EiIH0.eyAiaXNzIjogInI6MDAxOF8yNjIwNkZCQ18wNjY4MCIsICJzdWIiOiAiNzY1NjExOTk2OTIxODc4NzgiLCAiYXVkIjogWyAid2ViOmNvbW11bml0eSIgXSwgImV4cCI6IDE3NDQ0MDk2MTgsICJuYmYiOiAxNzM1NjgyNjk5LCAiaWF0IjogMTc0NDMyMjY5OSwgImp0aSI6ICIwMDAxXzI2MjA2QjY5XzRCM0MxIiwgIm9hdCI6IDE3NDQzMjI2OTksICJydF9leHAiOiAxNzYyMjEzNzkxLCAicGVyIjogMCwgImlwX3N1YmplY3QiOiAiMjE3Ljg0LjE0MS42MyIsICJpcF9jb25maXJtZXIiOiAiMjE3Ljg0LjE0MS42MyIgfQ.lJFLNharR7eJpCpE1YHdiiNbEpUvxsWh91RiD1bm7OYQgPJB4cMR8fNJLVDN9Yfb4yAoSVyujcVjZ4BL12hkBw;sessionid=9b12056fa189fccf1971a87b</t>
-  </si>
-  <si>
-    <t>470df4e3efb162da:RNW78Fm5@res.proxy-seller.com:10009</t>
-  </si>
-  <si>
-    <t>steamCountry=DE%7C375e32806a1fdac5b3f1dc74489ee829;steamLoginSecure=76561199691842117%7C%7CeyAidHlwIjogIkpXVCIsICJhbGciOiAiRWREU0EiIH0.eyAiaXNzIjogInI6MDAxMF8yNjIwNkNCRl8yM0NBOSIsICJzdWIiOiAiNzY1NjExOTk2OTE4NDIxMTciLCAiYXVkIjogWyAid2ViOmNvbW11bml0eSIgXSwgImV4cCI6IDE3NDQ0MDkzNzYsICJuYmYiOiAxNzM1NjgyNzAyLCAiaWF0IjogMTc0NDMyMjcwMiwgImp0aSI6ICIwMDBGXzI2MjA2QjY5XzQwODU2IiwgIm9hdCI6IDE3NDQzMjI3MDEsICJydF9leHAiOiAxNzYyMjA1NzIzLCAicGVyIjogMCwgImlwX3N1YmplY3QiOiAiOTEuNDAuMjMuOCIsICJpcF9jb25maXJtZXIiOiAiOTEuNDAuMjMuOCIgfQ.mbsYy4OSSoXeXCKIZIRBTn5rTEZFib2fm1m7vf4FCPaKjx4VIvzJe5pbPBHwlRK3HDfvpLw1ORVg4apxHwTICw;sessionid=6797d969935874ca8a4a419f</t>
-  </si>
-  <si>
-    <t>470df4e3efb162da:RNW78Fm5@res.proxy-seller.com:10010</t>
-  </si>
-  <si>
-    <t>steamCountry=DE%7Cfb73ed4b87d68f87e922d956c07663e6;steamLoginSecure=76561199691571598%7C%7CeyAidHlwIjogIkpXVCIsICJhbGciOiAiRWREU0EiIH0.eyAiaXNzIjogInI6MDAwRF8yNjIwNkNCRl8yODMxMCIsICJzdWIiOiAiNzY1NjExOTk2OTE1NzE1OTgiLCAiYXVkIjogWyAid2ViOmNvbW11bml0eSIgXSwgImV4cCI6IDE3NDQ0MDkzMDcsICJuYmYiOiAxNzM1NjgyNzA1LCAiaWF0IjogMTc0NDMyMjcwNSwgImp0aSI6ICIwMDE1XzI2MjA2Q0M0XzFEOUQ5IiwgIm9hdCI6IDE3NDQzMjI3MDUsICJydF9leHAiOiAxNzYyNTg5MjQ3LCAicGVyIjogMCwgImlwX3N1YmplY3QiOiAiNzkuMjIyLjExMy4xMTAiLCAiaXBfY29uZmlybWVyIjogIjc5LjIyMi4xMTMuMTEwIiB9.CdlhyG0Q5PYl9gIFKAVB3MYjdprHINChOeBu--lllTl1V4-3U_WQe4sDsno6-j6T0N0l2O2-PV1pk-VkkUWJCA;sessionid=5a3cc16b5cf52f36ac46a42c</t>
+    <t>4c57fb26003d0d37:RNW78Fm5@res.proxy-seller.com:10000</t>
+  </si>
+  <si>
+    <t>steamCountry=DE%7Cc6b4c93d5dbe073482eafc14323d6711;steamLoginSecure=76561199692162465%7C%7CeyAidHlwIjogIkpXVCIsICJhbGciOiAiRWREU0EiIH0.eyAiaXNzIjogInI6MDAxMl8yNjIwNkQwMV8yNUFCRiIsICJzdWIiOiAiNzY1NjExOTk2OTIxNjI0NjUiLCAiYXVkIjogWyAid2ViOmNvbW11bml0eSIgXSwgImV4cCI6IDE3NDQ3MTg3MDUsICJuYmYiOiAxNzM1OTkxMjc4LCAiaWF0IjogMTc0NDYzMTI3OCwgImp0aSI6ICIwMDBEXzI2MjA2Q0ZFXzAwMTNDIiwgIm9hdCI6IDE3NDQ2MzEyNzgsICJydF9leHAiOiAxNzYzMTkxMjU2LCAicGVyIjogMCwgImlwX3N1YmplY3QiOiAiMzcuMjQuMTY1LjIyNiIsICJpcF9jb25maXJtZXIiOiAiMzcuMjQuMTY1LjIyNiIgfQ.yyuUzdtlMBHJnKhR0Ac3_DR_gqhm_muBFWvVb1AS0kXzRTW8YQjNmkd7nChbYN7J7fl421E1oKq7Kar9IyzkAw;sessionid=cd44a223815d85766f583681</t>
+  </si>
+  <si>
+    <t>4c57fb26003d0d37:RNW78Fm5@res.proxy-seller.com:10001</t>
+  </si>
+  <si>
+    <t>steamCountry=DE%7Cb75eca501e689c5bb0552a4fe07c299c;steamLoginSecure=76561199691560677%7C%7CeyAidHlwIjogIkpXVCIsICJhbGciOiAiRWREU0EiIH0.eyAiaXNzIjogInI6MDAxM18yNjIwNkQwMV8wNjY3OSIsICJzdWIiOiAiNzY1NjExOTk2OTE1NjA2NzciLCAiYXVkIjogWyAid2ViOmNvbW11bml0eSIgXSwgImV4cCI6IDE3NDQ3MTg5NTYsICJuYmYiOiAxNzM1OTkxMjgxLCAiaWF0IjogMTc0NDYzMTI4MSwgImp0aSI6ICIwMDE5XzI2MjA2RkZCXzREQ0M1IiwgIm9hdCI6IDE3NDQ2MzEyODAsICJydF9leHAiOiAxNzYyNTQ4NDcwLCAicGVyIjogMCwgImlwX3N1YmplY3QiOiAiODQuMTM1LjIyOS4xNjQiLCAiaXBfY29uZmlybWVyIjogIjg0LjEzNS4yMjkuMTY0IiB9.DXCdlEALC8FVCKm6Zhc-bnKYprNN5jP2zz9cRiLdaLMRqfCzxYUKkTqZcqytlZq6nroT-5wvzkxscxahnZbxDg;sessionid=56eefa67ec13a86d4c9a317b</t>
+  </si>
+  <si>
+    <t>4c57fb26003d0d37:RNW78Fm5@res.proxy-seller.com:10002</t>
+  </si>
+  <si>
+    <t>steamCountry=DE%7C2e54551bec3bfaae8efbaafc89319d53;steamLoginSecure=76561199691838095%7C%7CeyAidHlwIjogIkpXVCIsICJhbGciOiAiRWREU0EiIH0.eyAiaXNzIjogInI6MDAxMl8yNjIwNkQwMV8yNUU4RCIsICJzdWIiOiAiNzY1NjExOTk2OTE4MzgwOTUiLCAiYXVkIjogWyAid2ViOmNvbW11bml0eSIgXSwgImV4cCI6IDE3NDQ3MTkzMTYsICJuYmYiOiAxNzM1OTkxMjg0LCAiaWF0IjogMTc0NDYzMTI4NCwgImp0aSI6ICIwMDEyXzI2MjA2RDAxXzI1RkQ0IiwgIm9hdCI6IDE3NDQ2MzEyODMsICJydF9leHAiOiAxNzYyNzk2MDMzLCAicGVyIjogMCwgImlwX3N1YmplY3QiOiAiOTUuMjIzLjc0LjEyMyIsICJpcF9jb25maXJtZXIiOiAiOTUuMjIzLjc0LjEyMyIgfQ.BqIeGqDqoGqgHqHF8cx4k_-aZnvFSPIhYSqV2mup9s9oTI39IgYo-pCG_BMWnu8cwuYdPA5W-XoN4Z-ajAO5Bw;sessionid=f2cad7fc75b37aaf4ac44ccb</t>
+  </si>
+  <si>
+    <t>4c57fb26003d0d37:RNW78Fm5@res.proxy-seller.com:10003</t>
+  </si>
+  <si>
+    <t>steamCountry=DE%7C34afa6a29879000b812d407a87c59fba;steamLoginSecure=76561199691555889%7C%7CeyAidHlwIjogIkpXVCIsICJhbGciOiAiRWREU0EiIH0.eyAiaXNzIjogInI6MDAxMl8yNjIwNkQwMV8yNjEwMCIsICJzdWIiOiAiNzY1NjExOTk2OTE1NTU4ODkiLCAiYXVkIjogWyAid2ViOmNvbW11bml0eSIgXSwgImV4cCI6IDE3NDQ3MTgyNTIsICJuYmYiOiAxNzM1OTkxMjg2LCAiaWF0IjogMTc0NDYzMTI4NiwgImp0aSI6ICIwMDBDXzI2MjA2RDAxXzUzNkJFIiwgIm9hdCI6IDE3NDQ2MzEyODUsICJydF9leHAiOiAxNzYyNzg0ODkxLCAicGVyIjogMCwgImlwX3N1YmplY3QiOiAiODcuMTIzLjE5NC43MiIsICJpcF9jb25maXJtZXIiOiAiODcuMTIzLjE5NC43MiIgfQ.OxHPgIBf0uU3HDflOzvK04Ntkxq4J9EPdhkS55wpQjW4dbm67UnGMJjVfIC-iORIYZivlkP3LWOBosWiF-aTBw;sessionid=93719acabedee44ca3552307</t>
+  </si>
+  <si>
+    <t>4c57fb26003d0d37:RNW78Fm5@res.proxy-seller.com:10004</t>
+  </si>
+  <si>
+    <t>steamCountry=DE%7Cbd46f703ffd9dba9a6942b3163b6ba97;steamLoginSecure=76561199691733088%7C%7CeyAidHlwIjogIkpXVCIsICJhbGciOiAiRWREU0EiIH0.eyAiaXNzIjogInI6MDAwRl8yNjIwNkJBN19GNzFGQyIsICJzdWIiOiAiNzY1NjExOTk2OTE3MzMwODgiLCAiYXVkIjogWyAid2ViOmNvbW11bml0eSIgXSwgImV4cCI6IDE3NDQ3MTg3MTcsICJuYmYiOiAxNzM1OTkxMjg4LCAiaWF0IjogMTc0NDYzMTI4OCwgImp0aSI6ICIwMDBCXzI2MjA2QkFCXzEwNjQ0IiwgIm9hdCI6IDE3NDQ2MzEyODgsICJydF9leHAiOiAxNzYyOTA1NjM0LCAicGVyIjogMCwgImlwX3N1YmplY3QiOiAiODcuMTM4LjE1Ni4xODAiLCAiaXBfY29uZmlybWVyIjogIjg3LjEzOC4xNTYuMTgwIiB9.wRLHVWlqWZw-uabpR_5dIhtvgsrRfbvfhiJjRUKIwLvFRg69RnDPUDMBjQPlGa4udkhmlOiD41L27FrLO0eVBw;sessionid=a3bc23df7877a091438a3cf6</t>
+  </si>
+  <si>
+    <t>4c57fb26003d0d37:RNW78Fm5@res.proxy-seller.com:10005</t>
+  </si>
+  <si>
+    <t>steamCountry=DE%7C142089d7f49495edffe31894f9796e59;steamLoginSecure=76561199691712259%7C%7CeyAidHlwIjogIkpXVCIsICJhbGciOiAiRWREU0EiIH0.eyAiaXNzIjogInI6MDAwOV8yNjIwNkNGRF9DMURCOSIsICJzdWIiOiAiNzY1NjExOTk2OTE3MTIyNTkiLCAiYXVkIjogWyAid2ViOmNvbW11bml0eSIgXSwgImV4cCI6IDE3NDQ3MTgwNDgsICJuYmYiOiAxNzM1OTkxMjkxLCAiaWF0IjogMTc0NDYzMTI5MSwgImp0aSI6ICIwMDA3XzI2MjA2Q0ZEX0VGRjRGIiwgIm9hdCI6IDE3NDQ2MzEyOTEsICJydF9leHAiOiAxNzYyNDUxNTg1LCAicGVyIjogMCwgImlwX3N1YmplY3QiOiAiMTA5LjkwLjE5Mi4xNDYiLCAiaXBfY29uZmlybWVyIjogIjEwOS45MC4xOTIuMTQ2IiB9.Aw1RL4Z6fS_yS4_2SCno3uJgnLpWkU7bne7QQ5DgFHxlnLWKQzezAcFaH83uiTMOe1OdS9Ntpkjad1Ue5kApCA;sessionid=e9340d535c8541298c097260</t>
+  </si>
+  <si>
+    <t>4c57fb26003d0d37:RNW78Fm5@res.proxy-seller.com:10006</t>
+  </si>
+  <si>
+    <t>steamCountry=DE%7C5ad46f3f12160dcbc3d46f98a58568b1;steamLoginSecure=76561199691841634%7C%7CeyAidHlwIjogIkpXVCIsICJhbGciOiAiRWREU0EiIH0.eyAiaXNzIjogInI6MDAxNF8yNjIwNkQwMl9GRDI2RCIsICJzdWIiOiAiNzY1NjExOTk2OTE4NDE2MzQiLCAiYXVkIjogWyAid2ViOmNvbW11bml0eSIgXSwgImV4cCI6IDE3NDQ3MTgzMzgsICJuYmYiOiAxNzM1OTkxMjk0LCAiaWF0IjogMTc0NDYzMTI5NCwgImp0aSI6ICIwMDA3XzI2MjA2Q0ZEX0YwMjEyIiwgIm9hdCI6IDE3NDQ2MzEyOTQsICJydF9leHAiOiAxNzYzMDYxMTk4LCAicGVyIjogMCwgImlwX3N1YmplY3QiOiAiNS4xNDYuMTk3LjE5OCIsICJpcF9jb25maXJtZXIiOiAiNS4xNDYuMTk3LjE5OCIgfQ.pcuEsVTkeVS8qS5MxjWKWIzP3DLRhK02Su7yL4RbjBsuzgBRz7CUguVUdInMn7lNqnZwOsR9unfe6hIut6L7Ag;sessionid=0d43cf30d49a92c8adb7f21a</t>
+  </si>
+  <si>
+    <t>4c57fb26003d0d37:RNW78Fm5@res.proxy-seller.com:10007</t>
+  </si>
+  <si>
+    <t>steamCountry=DE%7Cd7bb5d8169cb87a86e510f6ac121508c;steamLoginSecure=76561199692187878%7C%7CeyAidHlwIjogIkpXVCIsICJhbGciOiAiRWREU0EiIH0.eyAiaXNzIjogInI6MDAwRF8yNjIwNkNGRV8wMTU2RiIsICJzdWIiOiAiNzY1NjExOTk2OTIxODc4NzgiLCAiYXVkIjogWyAid2ViOmNvbW11bml0eSIgXSwgImV4cCI6IDE3NDQ3MTkzOTksICJuYmYiOiAxNzM1OTkxMzEzLCAiaWF0IjogMTc0NDYzMTMxMywgImp0aSI6ICIwMDAxXzI2MjA2QkE4XzQzQjZBIiwgIm9hdCI6IDE3NDQ2MzEzMDYsICJydF9leHAiOiAxNzYyOTA0MjA0LCAicGVyIjogMCwgImlwX3N1YmplY3QiOiAiMTc2LjMuNjguMTIyIiwgImlwX2NvbmZpcm1lciI6ICIxNzYuMy42OC4xMjIiIH0.E69g9uLSLhtk1wAAaDtquHO8pjdYwXHH2eyZfG3tJCVztm3m9XnKLOw1297QKuOA59YTsBYSzC2r9XGCstUqAA;sessionid=3c396fe24338accd1da90fad</t>
+  </si>
+  <si>
+    <t>4c57fb26003d0d37:RNW78Fm5@res.proxy-seller.com:10008</t>
+  </si>
+  <si>
+    <t>steamCountry=DE%7C5343597d4164eff16376adca0bbe0a57;steamLoginSecure=76561199691842117%7C%7CeyAidHlwIjogIkpXVCIsICJhbGciOiAiRWREU0EiIH0.eyAiaXNzIjogInI6MDAwQl8yNjIwNkJBQl8xMjFBMSIsICJzdWIiOiAiNzY1NjExOTk2OTE4NDIxMTciLCAiYXVkIjogWyAid2ViOmNvbW11bml0eSIgXSwgImV4cCI6IDE3NDQ3MTgyNTEsICJuYmYiOiAxNzM1OTkxMzIxLCAiaWF0IjogMTc0NDYzMTMyMSwgImp0aSI6ICIwMDBGXzI2MjA2QkE3X0Y4RjNBIiwgIm9hdCI6IDE3NDQ2MzEzMjEsICJydF9leHAiOiAxNzYyNDkyNDE1LCAicGVyIjogMCwgImlwX3N1YmplY3QiOiAiNDYuNS4yMjkuMjQxIiwgImlwX2NvbmZpcm1lciI6ICI0Ni41LjIyOS4yNDEiIH0.NFHiscEynyFgc1ZD1y-oqWRM3UtGl4WmXGWD8DVjB5AVpuaBfBeqwKQyUsX_b5MVMeefIs8NoIAoizvfUGkTAg;sessionid=6cac732068ee6e6c885ac674</t>
+  </si>
+  <si>
+    <t>4c57fb26003d0d37:RNW78Fm5@res.proxy-seller.com:10009</t>
+  </si>
+  <si>
+    <t>steamCountry=DE%7Cc32aad67a1e72bbcca2bed9509cc020c;steamLoginSecure=76561199691571598%7C%7CeyAidHlwIjogIkpXVCIsICJhbGciOiAiRWREU0EiIH0.eyAiaXNzIjogInI6MDAwNl8yNjIwNkNGRV8xMzIxMyIsICJzdWIiOiAiNzY1NjExOTk2OTE1NzE1OTgiLCAiYXVkIjogWyAid2ViOmNvbW11bml0eSIgXSwgImV4cCI6IDE3NDQ3MTgzNDksICJuYmYiOiAxNzM1OTkxMzI0LCAiaWF0IjogMTc0NDYzMTMyNCwgImp0aSI6ICIwMDE1XzI2MjA2RDAyX0U1NEY1IiwgIm9hdCI6IDE3NDQ2MzEzMjMsICJydF9leHAiOiAxNzYyNzYzNjU3LCAicGVyIjogMCwgImlwX3N1YmplY3QiOiAiODcuMTYyLjEwMi4xNTAiLCAiaXBfY29uZmlybWVyIjogIjg3LjE2Mi4xMDIuMTUwIiB9.3Fewf8MX_B1W7hIsE1SBVcSoYwVc8tubRyfNat_tLY34Kh4KyeszStwY8hEjwDtyLUqUUC-6pcL4rwYEV0itAw;sessionid=385326475c2ab5fb08da2707</t>
   </si>
 </sst>
 </file>
@@ -468,7 +468,7 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="58.5" customWidth="1"/>
+    <col min="1" max="1" width="66.5" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:2" ht="15.75" x14ac:dyDescent="0.25">

--- a/static/accounts_stage2.xlsx
+++ b/static/accounts_stage2.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Максим\Desktop\файлы для тестов Алексей\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D3970FF2-80CE-4BEF-9873-D105F883CAE6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2483D286-5A8C-47DD-ACDE-2E3D4B409498}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="7575" yWindow="3285" windowWidth="13230" windowHeight="11385" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="4740" yWindow="3105" windowWidth="18825" windowHeight="11385" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -31,61 +31,61 @@
     <t>4c57fb26003d0d37:RNW78Fm5@res.proxy-seller.com:10000</t>
   </si>
   <si>
-    <t>steamCountry=DE%7Cc6b4c93d5dbe073482eafc14323d6711;steamLoginSecure=76561199692162465%7C%7CeyAidHlwIjogIkpXVCIsICJhbGciOiAiRWREU0EiIH0.eyAiaXNzIjogInI6MDAxMl8yNjIwNkQwMV8yNUFCRiIsICJzdWIiOiAiNzY1NjExOTk2OTIxNjI0NjUiLCAiYXVkIjogWyAid2ViOmNvbW11bml0eSIgXSwgImV4cCI6IDE3NDQ3MTg3MDUsICJuYmYiOiAxNzM1OTkxMjc4LCAiaWF0IjogMTc0NDYzMTI3OCwgImp0aSI6ICIwMDBEXzI2MjA2Q0ZFXzAwMTNDIiwgIm9hdCI6IDE3NDQ2MzEyNzgsICJydF9leHAiOiAxNzYzMTkxMjU2LCAicGVyIjogMCwgImlwX3N1YmplY3QiOiAiMzcuMjQuMTY1LjIyNiIsICJpcF9jb25maXJtZXIiOiAiMzcuMjQuMTY1LjIyNiIgfQ.yyuUzdtlMBHJnKhR0Ac3_DR_gqhm_muBFWvVb1AS0kXzRTW8YQjNmkd7nChbYN7J7fl421E1oKq7Kar9IyzkAw;sessionid=cd44a223815d85766f583681</t>
+    <t>steamCountry=DE%7C4d3b5fe86905439831c561414b7d1c6b;steamLoginSecure=76561199692162465%7C%7CeyAidHlwIjogIkpXVCIsICJhbGciOiAiRWREU0EiIH0.eyAiaXNzIjogInI6MDAwRl8yNjI4N0YzOF9DQkNENSIsICJzdWIiOiAiNzY1NjExOTk2OTIxNjI0NjUiLCAiYXVkIjogWyAid2ViOmNvbW11bml0eSIgXSwgImV4cCI6IDE3NDQ5OTQ2ODksICJuYmYiOiAxNzM2MjY4MTI0LCAiaWF0IjogMTc0NDkwODEyNCwgImp0aSI6ICIwMDBEXzI2Mjg3RjM3X0Y4NTg1IiwgIm9hdCI6IDE3NDQ5MDgxMjQsICJydF9leHAiOiAxNzYzMzQ0NjQyLCAicGVyIjogMCwgImlwX3N1YmplY3QiOiAiOTMuMjI4LjIyMi4xMzQiLCAiaXBfY29uZmlybWVyIjogIjkzLjIyOC4yMjIuMTM0IiB9.6NM5bv6DpVhUu_H_PxDPgdCO6YGaHPk6KNiI_S3xrdmdpJPxBSNxtvs3Bidrr8ivjiXcOaxu57bTjUQbY8fgCA;sessionid=9acc97e158b5aac941c58828</t>
   </si>
   <si>
     <t>4c57fb26003d0d37:RNW78Fm5@res.proxy-seller.com:10001</t>
   </si>
   <si>
-    <t>steamCountry=DE%7Cb75eca501e689c5bb0552a4fe07c299c;steamLoginSecure=76561199691560677%7C%7CeyAidHlwIjogIkpXVCIsICJhbGciOiAiRWREU0EiIH0.eyAiaXNzIjogInI6MDAxM18yNjIwNkQwMV8wNjY3OSIsICJzdWIiOiAiNzY1NjExOTk2OTE1NjA2NzciLCAiYXVkIjogWyAid2ViOmNvbW11bml0eSIgXSwgImV4cCI6IDE3NDQ3MTg5NTYsICJuYmYiOiAxNzM1OTkxMjgxLCAiaWF0IjogMTc0NDYzMTI4MSwgImp0aSI6ICIwMDE5XzI2MjA2RkZCXzREQ0M1IiwgIm9hdCI6IDE3NDQ2MzEyODAsICJydF9leHAiOiAxNzYyNTQ4NDcwLCAicGVyIjogMCwgImlwX3N1YmplY3QiOiAiODQuMTM1LjIyOS4xNjQiLCAiaXBfY29uZmlybWVyIjogIjg0LjEzNS4yMjkuMTY0IiB9.DXCdlEALC8FVCKm6Zhc-bnKYprNN5jP2zz9cRiLdaLMRqfCzxYUKkTqZcqytlZq6nroT-5wvzkxscxahnZbxDg;sessionid=56eefa67ec13a86d4c9a317b</t>
+    <t>steamCountry=DE%7C66a1c9d814c3dafca4886d735aa696d9;steamLoginSecure=76561199691560677%7C%7CeyAidHlwIjogIkpXVCIsICJhbGciOiAiRWREU0EiIH0.eyAiaXNzIjogInI6MDAwRF8yNjI4N0YzN19GODc3OCIsICJzdWIiOiAiNzY1NjExOTk2OTE1NjA2NzciLCAiYXVkIjogWyAid2ViOmNvbW11bml0eSIgXSwgImV4cCI6IDE3NDQ5OTUwMzQsICJuYmYiOiAxNzM2MjY4MTI3LCAiaWF0IjogMTc0NDkwODEyNywgImp0aSI6ICIwMDE5XzI2Mjg3RjM1X0Y4OTQ2IiwgIm9hdCI6IDE3NDQ5MDgxMjcsICJydF9leHAiOiAxNzYyOTcwNzgzLCAicGVyIjogMCwgImlwX3N1YmplY3QiOiAiODQuMTQwLjE2Mi41MyIsICJpcF9jb25maXJtZXIiOiAiODQuMTQwLjE2Mi41MyIgfQ.cb8RHQojkTwig38lu2O7gg1IX42Tjoho7HSdN-bDCDKQM0hWHG_NlmxrkndKCegl4juwfSmDZYRM__t83emMCA;sessionid=15cc59805e6bec2ca094733c</t>
   </si>
   <si>
     <t>4c57fb26003d0d37:RNW78Fm5@res.proxy-seller.com:10002</t>
   </si>
   <si>
-    <t>steamCountry=DE%7C2e54551bec3bfaae8efbaafc89319d53;steamLoginSecure=76561199691838095%7C%7CeyAidHlwIjogIkpXVCIsICJhbGciOiAiRWREU0EiIH0.eyAiaXNzIjogInI6MDAxMl8yNjIwNkQwMV8yNUU4RCIsICJzdWIiOiAiNzY1NjExOTk2OTE4MzgwOTUiLCAiYXVkIjogWyAid2ViOmNvbW11bml0eSIgXSwgImV4cCI6IDE3NDQ3MTkzMTYsICJuYmYiOiAxNzM1OTkxMjg0LCAiaWF0IjogMTc0NDYzMTI4NCwgImp0aSI6ICIwMDEyXzI2MjA2RDAxXzI1RkQ0IiwgIm9hdCI6IDE3NDQ2MzEyODMsICJydF9leHAiOiAxNzYyNzk2MDMzLCAicGVyIjogMCwgImlwX3N1YmplY3QiOiAiOTUuMjIzLjc0LjEyMyIsICJpcF9jb25maXJtZXIiOiAiOTUuMjIzLjc0LjEyMyIgfQ.BqIeGqDqoGqgHqHF8cx4k_-aZnvFSPIhYSqV2mup9s9oTI39IgYo-pCG_BMWnu8cwuYdPA5W-XoN4Z-ajAO5Bw;sessionid=f2cad7fc75b37aaf4ac44ccb</t>
+    <t>steamCountry=DE%7Cb2f81c7dd897d89f7a9cf193b58fb2cf;steamLoginSecure=76561199691838095%7C%7CeyAidHlwIjogIkpXVCIsICJhbGciOiAiRWREU0EiIH0.eyAiaXNzIjogInI6MDAxM18yNjI4N0YzN19FNjYyRiIsICJzdWIiOiAiNzY1NjExOTk2OTE4MzgwOTUiLCAiYXVkIjogWyAid2ViOmNvbW11bml0eSIgXSwgImV4cCI6IDE3NDQ5OTUzMTEsICJuYmYiOiAxNzM2MjY4MTMwLCAiaWF0IjogMTc0NDkwODEzMCwgImp0aSI6ICIwMDEyXzI2Mjg3RjM5X0UxREI1IiwgIm9hdCI6IDE3NDQ5MDgxMjksICJydF9leHAiOiAxNzYyODk1MTE3LCAicGVyIjogMCwgImlwX3N1YmplY3QiOiAiMTkzLjE1OS42Ni45MSIsICJpcF9jb25maXJtZXIiOiAiMTkzLjE1OS42Ni45MSIgfQ.ey_UDdorpGk6G62ssSz3kWmq3g_CiDXZiwctegpzYOAaczWtpvwEaaCMkOZW6IL7kaSWY_Gr7G1juK6sOBYSAg;sessionid=9afa24482a8eabf523c35fcd</t>
   </si>
   <si>
     <t>4c57fb26003d0d37:RNW78Fm5@res.proxy-seller.com:10003</t>
   </si>
   <si>
-    <t>steamCountry=DE%7C34afa6a29879000b812d407a87c59fba;steamLoginSecure=76561199691555889%7C%7CeyAidHlwIjogIkpXVCIsICJhbGciOiAiRWREU0EiIH0.eyAiaXNzIjogInI6MDAxMl8yNjIwNkQwMV8yNjEwMCIsICJzdWIiOiAiNzY1NjExOTk2OTE1NTU4ODkiLCAiYXVkIjogWyAid2ViOmNvbW11bml0eSIgXSwgImV4cCI6IDE3NDQ3MTgyNTIsICJuYmYiOiAxNzM1OTkxMjg2LCAiaWF0IjogMTc0NDYzMTI4NiwgImp0aSI6ICIwMDBDXzI2MjA2RDAxXzUzNkJFIiwgIm9hdCI6IDE3NDQ2MzEyODUsICJydF9leHAiOiAxNzYyNzg0ODkxLCAicGVyIjogMCwgImlwX3N1YmplY3QiOiAiODcuMTIzLjE5NC43MiIsICJpcF9jb25maXJtZXIiOiAiODcuMTIzLjE5NC43MiIgfQ.OxHPgIBf0uU3HDflOzvK04Ntkxq4J9EPdhkS55wpQjW4dbm67UnGMJjVfIC-iORIYZivlkP3LWOBosWiF-aTBw;sessionid=93719acabedee44ca3552307</t>
+    <t>steamCountry=DE%7C122f190bb0296d2df71a72c001386dcc;steamLoginSecure=76561199691555889%7C%7CeyAidHlwIjogIkpXVCIsICJhbGciOiAiRWREU0EiIH0.eyAiaXNzIjogInI6MDAxMV8yNjI4N0YzQ18xMjBGNSIsICJzdWIiOiAiNzY1NjExOTk2OTE1NTU4ODkiLCAiYXVkIjogWyAid2ViOmNvbW11bml0eSIgXSwgImV4cCI6IDE3NDQ5OTQ4MjEsICJuYmYiOiAxNzM2MjY4MTMzLCAiaWF0IjogMTc0NDkwODEzMywgImp0aSI6ICIwMDBDXzI2Mjg3RjNDXzI1REY4IiwgIm9hdCI6IDE3NDQ5MDgxMzIsICJydF9leHAiOiAxNzYyOTg5Njc0LCAicGVyIjogMCwgImlwX3N1YmplY3QiOiAiOTUuMTE1LjEzNS45MyIsICJpcF9jb25maXJtZXIiOiAiOTUuMTE1LjEzNS45MyIgfQ.1AoAry01Q9MpiRrwuA2z-cysfNhEdWZZfsa5CHyxgBKrPsDjjgPLapSrBjIoPHscgbgVNA8_OpLdy6HGfnSYCg;sessionid=32481eff419ee0215f8f69bd</t>
   </si>
   <si>
     <t>4c57fb26003d0d37:RNW78Fm5@res.proxy-seller.com:10004</t>
   </si>
   <si>
-    <t>steamCountry=DE%7Cbd46f703ffd9dba9a6942b3163b6ba97;steamLoginSecure=76561199691733088%7C%7CeyAidHlwIjogIkpXVCIsICJhbGciOiAiRWREU0EiIH0.eyAiaXNzIjogInI6MDAwRl8yNjIwNkJBN19GNzFGQyIsICJzdWIiOiAiNzY1NjExOTk2OTE3MzMwODgiLCAiYXVkIjogWyAid2ViOmNvbW11bml0eSIgXSwgImV4cCI6IDE3NDQ3MTg3MTcsICJuYmYiOiAxNzM1OTkxMjg4LCAiaWF0IjogMTc0NDYzMTI4OCwgImp0aSI6ICIwMDBCXzI2MjA2QkFCXzEwNjQ0IiwgIm9hdCI6IDE3NDQ2MzEyODgsICJydF9leHAiOiAxNzYyOTA1NjM0LCAicGVyIjogMCwgImlwX3N1YmplY3QiOiAiODcuMTM4LjE1Ni4xODAiLCAiaXBfY29uZmlybWVyIjogIjg3LjEzOC4xNTYuMTgwIiB9.wRLHVWlqWZw-uabpR_5dIhtvgsrRfbvfhiJjRUKIwLvFRg69RnDPUDMBjQPlGa4udkhmlOiD41L27FrLO0eVBw;sessionid=a3bc23df7877a091438a3cf6</t>
+    <t>steamCountry=DE%7Ce6e6825fe84a542554bae8a46207df42;steamLoginSecure=76561199691733088%7C%7CeyAidHlwIjogIkpXVCIsICJhbGciOiAiRWREU0EiIH0.eyAiaXNzIjogInI6MDAwNl8yNjI4N0YzNV9FMjFBOSIsICJzdWIiOiAiNzY1NjExOTk2OTE3MzMwODgiLCAiYXVkIjogWyAid2ViOmNvbW11bml0eSIgXSwgImV4cCI6IDE3NDQ5OTQ3NTcsICJuYmYiOiAxNzM2MjY4MTM1LCAiaWF0IjogMTc0NDkwODEzNSwgImp0aSI6ICIwMDBCXzI2Mjg3RjNCX0I1MTA1IiwgIm9hdCI6IDE3NDQ5MDgxMzUsICJydF9leHAiOiAxNzYzMjc3ODIxLCAicGVyIjogMCwgImlwX3N1YmplY3QiOiAiODQuMTcwLjEwOS4zOSIsICJpcF9jb25maXJtZXIiOiAiODQuMTcwLjEwOS4zOSIgfQ.UGCJdob1NQg41uK6b9x-xFMQvxesz2XGyLLWJlnZk5tAHITmHB7I-awZNdsDEFR4odorUuy8If-RnQvVyIZvAA;sessionid=956d47e1d34f8dbd9690e730</t>
   </si>
   <si>
     <t>4c57fb26003d0d37:RNW78Fm5@res.proxy-seller.com:10005</t>
   </si>
   <si>
-    <t>steamCountry=DE%7C142089d7f49495edffe31894f9796e59;steamLoginSecure=76561199691712259%7C%7CeyAidHlwIjogIkpXVCIsICJhbGciOiAiRWREU0EiIH0.eyAiaXNzIjogInI6MDAwOV8yNjIwNkNGRF9DMURCOSIsICJzdWIiOiAiNzY1NjExOTk2OTE3MTIyNTkiLCAiYXVkIjogWyAid2ViOmNvbW11bml0eSIgXSwgImV4cCI6IDE3NDQ3MTgwNDgsICJuYmYiOiAxNzM1OTkxMjkxLCAiaWF0IjogMTc0NDYzMTI5MSwgImp0aSI6ICIwMDA3XzI2MjA2Q0ZEX0VGRjRGIiwgIm9hdCI6IDE3NDQ2MzEyOTEsICJydF9leHAiOiAxNzYyNDUxNTg1LCAicGVyIjogMCwgImlwX3N1YmplY3QiOiAiMTA5LjkwLjE5Mi4xNDYiLCAiaXBfY29uZmlybWVyIjogIjEwOS45MC4xOTIuMTQ2IiB9.Aw1RL4Z6fS_yS4_2SCno3uJgnLpWkU7bne7QQ5DgFHxlnLWKQzezAcFaH83uiTMOe1OdS9Ntpkjad1Ue5kApCA;sessionid=e9340d535c8541298c097260</t>
+    <t>steamCountry=DE%7Cd64fb4d23664c024e36373d9d0803f79;steamLoginSecure=76561199691712259%7C%7CeyAidHlwIjogIkpXVCIsICJhbGciOiAiRWREU0EiIH0.eyAiaXNzIjogInI6MDAxNF8yNjI4N0YzOF9FNTFGQyIsICJzdWIiOiAiNzY1NjExOTk2OTE3MTIyNTkiLCAiYXVkIjogWyAid2ViOmNvbW11bml0eSIgXSwgImV4cCI6IDE3NDQ5OTU2OTcsICJuYmYiOiAxNzM2MjY4MTM4LCAiaWF0IjogMTc0NDkwODEzOCwgImp0aSI6ICIwMDA3XzI2Mjg3RjM2X0YwOEQ1IiwgIm9hdCI6IDE3NDQ5MDgxMzcsICJydF9leHAiOiAxNzYzMTQ2ODAxLCAicGVyIjogMCwgImlwX3N1YmplY3QiOiAiMTkzLjE1OS4xMC4yNDIiLCAiaXBfY29uZmlybWVyIjogIjE5My4xNTkuMTAuMjQyIiB9.j6T2Z59Qr0tHVXzQke-sTaQQ8Vwg-1ECh5JxY7h21CNOx0c7GGe1ey7tLKbYH46u1MCLSSuxtrTl4w7RKrqFDg;sessionid=33d67fbdec09de73a52f0817</t>
   </si>
   <si>
     <t>4c57fb26003d0d37:RNW78Fm5@res.proxy-seller.com:10006</t>
   </si>
   <si>
-    <t>steamCountry=DE%7C5ad46f3f12160dcbc3d46f98a58568b1;steamLoginSecure=76561199691841634%7C%7CeyAidHlwIjogIkpXVCIsICJhbGciOiAiRWREU0EiIH0.eyAiaXNzIjogInI6MDAxNF8yNjIwNkQwMl9GRDI2RCIsICJzdWIiOiAiNzY1NjExOTk2OTE4NDE2MzQiLCAiYXVkIjogWyAid2ViOmNvbW11bml0eSIgXSwgImV4cCI6IDE3NDQ3MTgzMzgsICJuYmYiOiAxNzM1OTkxMjk0LCAiaWF0IjogMTc0NDYzMTI5NCwgImp0aSI6ICIwMDA3XzI2MjA2Q0ZEX0YwMjEyIiwgIm9hdCI6IDE3NDQ2MzEyOTQsICJydF9leHAiOiAxNzYzMDYxMTk4LCAicGVyIjogMCwgImlwX3N1YmplY3QiOiAiNS4xNDYuMTk3LjE5OCIsICJpcF9jb25maXJtZXIiOiAiNS4xNDYuMTk3LjE5OCIgfQ.pcuEsVTkeVS8qS5MxjWKWIzP3DLRhK02Su7yL4RbjBsuzgBRz7CUguVUdInMn7lNqnZwOsR9unfe6hIut6L7Ag;sessionid=0d43cf30d49a92c8adb7f21a</t>
+    <t>steamCountry=DE%7Cfc32520d756598abc68ffed2c504e619;steamLoginSecure=76561199691841634%7C%7CeyAidHlwIjogIkpXVCIsICJhbGciOiAiRWREU0EiIH0.eyAiaXNzIjogInI6MDAxNF8yNjI4N0YzOF9FNTRFMyIsICJzdWIiOiAiNzY1NjExOTk2OTE4NDE2MzQiLCAiYXVkIjogWyAid2ViOmNvbW11bml0eSIgXSwgImV4cCI6IDE3NDQ5OTU2MjAsICJuYmYiOiAxNzM2MjY4MTQyLCAiaWF0IjogMTc0NDkwODE0MiwgImp0aSI6ICIwMDA3XzI2Mjg3RjM2X0YwQzNEIiwgIm9hdCI6IDE3NDQ5MDgxNDEsICJydF9leHAiOiAxNzYyOTQyOTYzLCAicGVyIjogMCwgImlwX3N1YmplY3QiOiAiNDYuMTE0LjIwMS4xOTYiLCAiaXBfY29uZmlybWVyIjogIjQ2LjExNC4yMDEuMTk2IiB9.uLkDWMI0H0TGKPSleA_TTUNt_nwB5PbxLdma9WlLp6oDY4M-XgaKSczMYXHRJMV5gh9AhGmnjU0ZnOxwXMCMCg;sessionid=7694eda8a528a429668ec784</t>
   </si>
   <si>
     <t>4c57fb26003d0d37:RNW78Fm5@res.proxy-seller.com:10007</t>
   </si>
   <si>
-    <t>steamCountry=DE%7Cd7bb5d8169cb87a86e510f6ac121508c;steamLoginSecure=76561199692187878%7C%7CeyAidHlwIjogIkpXVCIsICJhbGciOiAiRWREU0EiIH0.eyAiaXNzIjogInI6MDAwRF8yNjIwNkNGRV8wMTU2RiIsICJzdWIiOiAiNzY1NjExOTk2OTIxODc4NzgiLCAiYXVkIjogWyAid2ViOmNvbW11bml0eSIgXSwgImV4cCI6IDE3NDQ3MTkzOTksICJuYmYiOiAxNzM1OTkxMzEzLCAiaWF0IjogMTc0NDYzMTMxMywgImp0aSI6ICIwMDAxXzI2MjA2QkE4XzQzQjZBIiwgIm9hdCI6IDE3NDQ2MzEzMDYsICJydF9leHAiOiAxNzYyOTA0MjA0LCAicGVyIjogMCwgImlwX3N1YmplY3QiOiAiMTc2LjMuNjguMTIyIiwgImlwX2NvbmZpcm1lciI6ICIxNzYuMy42OC4xMjIiIH0.E69g9uLSLhtk1wAAaDtquHO8pjdYwXHH2eyZfG3tJCVztm3m9XnKLOw1297QKuOA59YTsBYSzC2r9XGCstUqAA;sessionid=3c396fe24338accd1da90fad</t>
+    <t>steamCountry=DE%7C17d567a8feeea7944abb94c1ae84255c;steamLoginSecure=76561199692187878%7C%7CeyAidHlwIjogIkpXVCIsICJhbGciOiAiRWREU0EiIH0.eyAiaXNzIjogInI6MDAwN18yNjI4N0YzNl9GMEY4MCIsICJzdWIiOiAiNzY1NjExOTk2OTIxODc4NzgiLCAiYXVkIjogWyAid2ViOmNvbW11bml0eSIgXSwgImV4cCI6IDE3NDQ5OTU3NDAsICJuYmYiOiAxNzM2MjY4MTQ2LCAiaWF0IjogMTc0NDkwODE0NiwgImp0aSI6ICIwMDAxXzI2Mjg3RjMyXzA4RUVCIiwgIm9hdCI6IDE3NDQ5MDgxNDYsICJydF9leHAiOiAxNzYyNDc3NDAwLCAicGVyIjogMCwgImlwX3N1YmplY3QiOiAiNzkuMjE1LjE1Mi4yMTciLCAiaXBfY29uZmlybWVyIjogIjc5LjIxNS4xNTIuMjE3IiB9.RWVUgTmtFt1_e_m8Fx5Biv8EhtZ5Xq-6NRQOfOvBkUqlkMbNBx4C2RpNWoB0ZqPWCpBg246Qc8KgrESOAM2ADA;sessionid=5c1cdafb098255f7cf737127</t>
   </si>
   <si>
     <t>4c57fb26003d0d37:RNW78Fm5@res.proxy-seller.com:10008</t>
   </si>
   <si>
-    <t>steamCountry=DE%7C5343597d4164eff16376adca0bbe0a57;steamLoginSecure=76561199691842117%7C%7CeyAidHlwIjogIkpXVCIsICJhbGciOiAiRWREU0EiIH0.eyAiaXNzIjogInI6MDAwQl8yNjIwNkJBQl8xMjFBMSIsICJzdWIiOiAiNzY1NjExOTk2OTE4NDIxMTciLCAiYXVkIjogWyAid2ViOmNvbW11bml0eSIgXSwgImV4cCI6IDE3NDQ3MTgyNTEsICJuYmYiOiAxNzM1OTkxMzIxLCAiaWF0IjogMTc0NDYzMTMyMSwgImp0aSI6ICIwMDBGXzI2MjA2QkE3X0Y4RjNBIiwgIm9hdCI6IDE3NDQ2MzEzMjEsICJydF9leHAiOiAxNzYyNDkyNDE1LCAicGVyIjogMCwgImlwX3N1YmplY3QiOiAiNDYuNS4yMjkuMjQxIiwgImlwX2NvbmZpcm1lciI6ICI0Ni41LjIyOS4yNDEiIH0.NFHiscEynyFgc1ZD1y-oqWRM3UtGl4WmXGWD8DVjB5AVpuaBfBeqwKQyUsX_b5MVMeefIs8NoIAoizvfUGkTAg;sessionid=6cac732068ee6e6c885ac674</t>
+    <t>steamCountry=DE%7C4509b38d9fc420c087f4ce3004b49f28;steamLoginSecure=76561199691842117%7C%7CeyAidHlwIjogIkpXVCIsICJhbGciOiAiRWREU0EiIH0.eyAiaXNzIjogInI6MDAwRV8yNjI4N0YzOV9DNkJEMCIsICJzdWIiOiAiNzY1NjExOTk2OTE4NDIxMTciLCAiYXVkIjogWyAid2ViOmNvbW11bml0eSIgXSwgImV4cCI6IDE3NDQ5OTU3MzAsICJuYmYiOiAxNzM2MjY4MTUwLCAiaWF0IjogMTc0NDkwODE1MCwgImp0aSI6ICIwMDBGXzI2Mjg3RjM4X0NENDU2IiwgIm9hdCI6IDE3NDQ5MDgxNDksICJydF9leHAiOiAxNzYyOTIwNzkxLCAicGVyIjogMCwgImlwX3N1YmplY3QiOiAiODAuMTcxLjEzNi41IiwgImlwX2NvbmZpcm1lciI6ICI4MC4xNzEuMTM2LjUiIH0.7O7zJ8DVjjPUVFqkwQVmo7b8xALZGJi5OtqmwVl-O21D3rXCRchMpMNe7NqCqtQGPHNeOsiMIsFSMg0sb2ijDg;sessionid=a72be78aa4d3b590e6a31b5a</t>
   </si>
   <si>
     <t>4c57fb26003d0d37:RNW78Fm5@res.proxy-seller.com:10009</t>
   </si>
   <si>
-    <t>steamCountry=DE%7Cc32aad67a1e72bbcca2bed9509cc020c;steamLoginSecure=76561199691571598%7C%7CeyAidHlwIjogIkpXVCIsICJhbGciOiAiRWREU0EiIH0.eyAiaXNzIjogInI6MDAwNl8yNjIwNkNGRV8xMzIxMyIsICJzdWIiOiAiNzY1NjExOTk2OTE1NzE1OTgiLCAiYXVkIjogWyAid2ViOmNvbW11bml0eSIgXSwgImV4cCI6IDE3NDQ3MTgzNDksICJuYmYiOiAxNzM1OTkxMzI0LCAiaWF0IjogMTc0NDYzMTMyNCwgImp0aSI6ICIwMDE1XzI2MjA2RDAyX0U1NEY1IiwgIm9hdCI6IDE3NDQ2MzEzMjMsICJydF9leHAiOiAxNzYyNzYzNjU3LCAicGVyIjogMCwgImlwX3N1YmplY3QiOiAiODcuMTYyLjEwMi4xNTAiLCAiaXBfY29uZmlybWVyIjogIjg3LjE2Mi4xMDIuMTUwIiB9.3Fewf8MX_B1W7hIsE1SBVcSoYwVc8tubRyfNat_tLY34Kh4KyeszStwY8hEjwDtyLUqUUC-6pcL4rwYEV0itAw;sessionid=385326475c2ab5fb08da2707</t>
+    <t>steamCountry=DE%7Cacea7abce9bf27ae7453c6ec11d46877;steamLoginSecure=76561199691571598%7C%7CeyAidHlwIjogIkpXVCIsICJhbGciOiAiRWREU0EiIH0.eyAiaXNzIjogInI6MDAwNV8yNjI4N0YzN19FOUFBQiIsICJzdWIiOiAiNzY1NjExOTk2OTE1NzE1OTgiLCAiYXVkIjogWyAid2ViOmNvbW11bml0eSIgXSwgImV4cCI6IDE3NDQ5OTU0NDMsICJuYmYiOiAxNzM2MjY4MTUzLCAiaWF0IjogMTc0NDkwODE1MywgImp0aSI6ICIwMDE1XzI2Mjg3RjM5X0U4MDUzIiwgIm9hdCI6IDE3NDQ5MDgxNTIsICJydF9leHAiOiAxNzYzMDU0MTgwLCAicGVyIjogMCwgImlwX3N1YmplY3QiOiAiNzcuMTc3LjguMTY5IiwgImlwX2NvbmZpcm1lciI6ICI3Ny4xNzcuOC4xNjkiIH0.GYUGFVHC_3wkhglDRP4-RpoqnfLRh94_etPi62S2kZjfYLnn52Dj7E4yXRy0QEJlVCS1Rp8tOUhM9QtZR-ZTAg;sessionid=498b6c269367f9b491a2b890</t>
   </si>
 </sst>
 </file>
@@ -468,7 +468,7 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="66.5" customWidth="1"/>
+    <col min="1" max="1" width="35.375" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:2" ht="15.75" x14ac:dyDescent="0.25">
